--- a/src/main/java/resources/Data.xlsx
+++ b/src/main/java/resources/Data.xlsx
@@ -16,15 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t>abcde</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
   <si>
     <t>abcd@gmail.com</t>
   </si>
   <si>
-    <t>abcd@1201</t>
+    <t>rose@gmail.com</t>
+  </si>
+  <si>
+    <t>honda@gmail.com</t>
+  </si>
+  <si>
+    <t>abcd123</t>
+  </si>
+  <si>
+    <t>rose123</t>
+  </si>
+  <si>
+    <t>honda123</t>
   </si>
 </sst>
 </file>
@@ -55,12 +70,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -73,12 +103,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -374,47 +402,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="Milan@1201"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="A1" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId1" display="Milan@1201"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
     <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5" display="Milan@1201"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
